--- a/Hcard配置表/language.xlsx
+++ b/Hcard配置表/language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="695">
   <si>
     <t>condition_desc（策划看）</t>
   </si>
@@ -1170,7 +1170,7 @@
     <t>event_common_desc18</t>
   </si>
   <si>
-    <t>【情调】该事件必定成功</t>
+    <t>【情调】该事件完成后会清除场上全部一般事件</t>
   </si>
   <si>
     <t>event_desc_SP18</t>
@@ -1276,7 +1276,7 @@
     <t>event_desc_SP20</t>
   </si>
   <si>
-    <t>只要该事件存在场上，每个检定都得到奖励骰</t>
+    <t>只要该事件存在场上，每个检定结果-2</t>
   </si>
   <si>
     <t>event_result_desc20</t>
@@ -1570,19 +1570,19 @@
     <t>event_name28</t>
   </si>
   <si>
-    <t>更进一步</t>
+    <t>水声</t>
   </si>
   <si>
     <t>event_desc28</t>
   </si>
   <si>
-    <t>她从座位上起身，神秘兮兮地拉着你离开桌旁，宣布现在将要兑现那份“神秘的奖励”。</t>
+    <t>尽管此刻你与洛璃仅有一墙之隔，能够回应心中这份躁动的只有水声。</t>
   </si>
   <si>
     <t>event_common_desc28</t>
   </si>
   <si>
-    <t>打入任意卡牌以进入下一阶段</t>
+    <t>无法打入卡牌。该事件结束后会清除场上全部一般事件。</t>
   </si>
   <si>
     <t>event_desc_SP28</t>
@@ -1630,7 +1630,7 @@
     <t>event_name30</t>
   </si>
   <si>
-    <t>转化2</t>
+    <t>回应期待</t>
   </si>
   <si>
     <t>event_desc30</t>
@@ -1681,13 +1681,7 @@
     <t>event_name32</t>
   </si>
   <si>
-    <t>热情洋溢</t>
-  </si>
-  <si>
     <t>event_desc32</t>
-  </si>
-  <si>
-    <t>火热的气氛已经在不知不觉间环绕着你们，无论是你还是她都开始期待着更加热切的举动。</t>
   </si>
   <si>
     <t>event_common_desc32</t>
@@ -2116,8 +2110,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2135,14 +2129,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2173,22 +2159,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2204,13 +2182,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2241,7 +2212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2249,7 +2220,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2278,6 +2256,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -2294,13 +2288,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2312,67 +2318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2390,13 +2336,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2408,13 +2390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2426,19 +2402,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2450,31 +2456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2568,10 +2562,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2580,23 +2572,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2642,9 +2619,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2663,6 +2642,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2671,10 +2665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2683,137 +2677,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2833,9 +2827,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3251,8 +3242,8 @@
   <sheetPr/>
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:Y41"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3275,10 +3266,10 @@
     <col min="17" max="17" width="16.625" customWidth="1"/>
     <col min="18" max="18" width="12.625" customWidth="1"/>
     <col min="19" max="19" width="14.75" customWidth="1"/>
-    <col min="20" max="20" width="18.875" style="10" customWidth="1"/>
-    <col min="21" max="21" width="14.625" style="11" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="14.625" style="12" customWidth="1"/>
-    <col min="23" max="23" width="21.625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="18.875" style="9" customWidth="1"/>
+    <col min="21" max="21" width="14.625" style="10" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.625" style="11" customWidth="1"/>
+    <col min="23" max="23" width="21.625" style="9" customWidth="1"/>
     <col min="25" max="25" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3312,7 +3303,7 @@
         <v>6</v>
       </c>
       <c r="O1" s="3"/>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="3"/>
@@ -3320,15 +3311,15 @@
         <v>8</v>
       </c>
       <c r="S1" s="3"/>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="15" t="s">
+      <c r="U1" s="16"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3336,13 +3327,13 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -3354,13 +3345,13 @@
       <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -3372,38 +3363,38 @@
       <c r="M2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="12" t="s">
         <v>21</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="13"/>
+      <c r="R2" s="12"/>
       <c r="S2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="X2" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3414,10 +3405,10 @@
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -3429,13 +3420,13 @@
       <c r="G3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>43</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -3447,38 +3438,38 @@
       <c r="M3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="12" t="s">
         <v>43</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="13"/>
+      <c r="R3" s="12"/>
       <c r="S3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="9" t="s">
         <v>53</v>
       </c>
       <c r="X3" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="27" t="s">
+      <c r="Y3" s="26" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3486,13 +3477,13 @@
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -3504,13 +3495,13 @@
       <c r="G4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>63</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>65</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -3522,38 +3513,38 @@
       <c r="M4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="R4" s="13"/>
+      <c r="R4" s="12"/>
       <c r="S4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="U4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="V4" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="9" t="s">
         <v>76</v>
       </c>
       <c r="X4" t="s">
         <v>77</v>
       </c>
-      <c r="Y4" s="28" t="s">
+      <c r="Y4" s="27" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3561,13 +3552,13 @@
       <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>82</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -3579,13 +3570,13 @@
       <c r="G5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>86</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>88</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -3597,38 +3588,38 @@
       <c r="M5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="12" t="s">
         <v>94</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="R5" s="13"/>
+      <c r="R5" s="12"/>
       <c r="S5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="T5" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="U5" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="19" t="s">
+      <c r="V5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="9" t="s">
         <v>99</v>
       </c>
       <c r="X5" t="s">
         <v>100</v>
       </c>
-      <c r="Y5" s="27" t="s">
+      <c r="Y5" s="26" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3636,13 +3627,13 @@
       <c r="A6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -3654,13 +3645,13 @@
       <c r="G6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>109</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>111</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -3672,38 +3663,38 @@
       <c r="M6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="12" t="s">
         <v>65</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="R6" s="13"/>
+      <c r="R6" s="12"/>
       <c r="S6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="U6" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="V6" s="19" t="s">
+      <c r="V6" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="W6" s="9" t="s">
         <v>121</v>
       </c>
       <c r="X6" t="s">
         <v>122</v>
       </c>
-      <c r="Y6" s="27" t="s">
+      <c r="Y6" s="26" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3711,13 +3702,13 @@
       <c r="A7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>127</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -3729,13 +3720,13 @@
       <c r="G7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>131</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>133</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -3747,38 +3738,38 @@
       <c r="M7" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="12" t="s">
         <v>139</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="R7" s="13"/>
+      <c r="R7" s="12"/>
       <c r="S7" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="T7" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="U7" s="15" t="s">
+      <c r="U7" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="V7" s="19" t="s">
+      <c r="V7" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="W7" s="9" t="s">
         <v>144</v>
       </c>
       <c r="X7" t="s">
         <v>145</v>
       </c>
-      <c r="Y7" s="28" t="s">
+      <c r="Y7" s="27" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3786,13 +3777,13 @@
       <c r="A8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>150</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -3804,13 +3795,13 @@
       <c r="G8" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>154</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="3" t="s">
         <v>156</v>
       </c>
@@ -3820,38 +3811,38 @@
       <c r="M8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="12" t="s">
         <v>161</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="R8" s="13"/>
+      <c r="R8" s="12"/>
       <c r="S8" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="T8" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="U8" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="V8" s="19" t="s">
+      <c r="V8" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="W8" s="9" t="s">
         <v>166</v>
       </c>
       <c r="X8" t="s">
         <v>167</v>
       </c>
-      <c r="Y8" s="26" t="s">
+      <c r="Y8" s="25" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3862,7 +3853,7 @@
       <c r="B9" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>171</v>
       </c>
       <c r="D9" t="s">
@@ -3877,13 +3868,13 @@
       <c r="G9" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>176</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>178</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -3895,38 +3886,38 @@
       <c r="M9" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="R9" s="13"/>
+      <c r="R9" s="12"/>
       <c r="S9" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="T9" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="U9" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="V9" s="19" t="s">
+      <c r="V9" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="W9" s="10" t="s">
+      <c r="W9" s="9" t="s">
         <v>188</v>
       </c>
       <c r="X9" t="s">
         <v>189</v>
       </c>
-      <c r="Y9" s="27" t="s">
+      <c r="Y9" s="26" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3934,13 +3925,13 @@
       <c r="A10" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>194</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -3952,13 +3943,13 @@
       <c r="G10" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>198</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="12" t="s">
         <v>200</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -3970,38 +3961,38 @@
       <c r="M10" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="12" t="s">
         <v>111</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="R10" s="13"/>
+      <c r="R10" s="12"/>
       <c r="S10" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="T10" s="21" t="s">
+      <c r="T10" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="V10" s="19" t="s">
+      <c r="V10" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="W10" s="9" t="s">
         <v>210</v>
       </c>
       <c r="X10" t="s">
         <v>211</v>
       </c>
-      <c r="Y10" s="27" t="s">
+      <c r="Y10" s="26" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4009,13 +4000,13 @@
       <c r="A11" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>216</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -4027,13 +4018,13 @@
       <c r="G11" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>220</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>111</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -4045,40 +4036,40 @@
       <c r="M11" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="12" t="s">
         <v>227</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="12" t="s">
         <v>229</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="T11" s="18" t="s">
+      <c r="T11" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="U11" s="15" t="s">
+      <c r="U11" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="V11" s="19" t="s">
+      <c r="V11" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="W11" s="10" t="s">
+      <c r="W11" s="9" t="s">
         <v>233</v>
       </c>
       <c r="X11" t="s">
         <v>234</v>
       </c>
-      <c r="Y11" s="27" t="s">
+      <c r="Y11" s="26" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4086,13 +4077,13 @@
       <c r="A12" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>239</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -4104,13 +4095,13 @@
       <c r="G12" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>243</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="12" t="s">
         <v>245</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -4122,40 +4113,40 @@
       <c r="M12" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="O12" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="12" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="12" t="s">
         <v>252</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="T12" s="18" t="s">
+      <c r="T12" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="U12" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="V12" s="19" t="s">
+      <c r="V12" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="W12" s="10" t="s">
+      <c r="W12" s="9" t="s">
         <v>256</v>
       </c>
       <c r="X12" t="s">
         <v>257</v>
       </c>
-      <c r="Y12" s="27" t="s">
+      <c r="Y12" s="26" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4163,13 +4154,13 @@
       <c r="A13" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>262</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -4181,13 +4172,13 @@
       <c r="G13" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>266</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="J13" s="13"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="3" t="s">
         <v>268</v>
       </c>
@@ -4197,40 +4188,40 @@
       <c r="M13" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="12" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="12" t="s">
         <v>274</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="T13" s="18" t="s">
+      <c r="T13" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="U13" s="15" t="s">
+      <c r="U13" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="V13" s="19" t="s">
+      <c r="V13" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="W13" s="10" t="s">
+      <c r="W13" s="9" t="s">
         <v>278</v>
       </c>
       <c r="X13" t="s">
         <v>279</v>
       </c>
-      <c r="Y13" s="27" t="s">
+      <c r="Y13" s="26" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4238,10 +4229,10 @@
       <c r="A14" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>283</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -4251,11 +4242,11 @@
       <c r="G14" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="3" t="s">
         <v>287</v>
       </c>
@@ -4265,38 +4256,38 @@
       <c r="M14" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="N14" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="12" t="s">
         <v>65</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="R14" s="13"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="T14" s="22" t="s">
+      <c r="T14" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="U14" s="15" t="s">
+      <c r="U14" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="V14" s="19" t="s">
+      <c r="V14" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="W14" s="10" t="s">
+      <c r="W14" s="9" t="s">
         <v>296</v>
       </c>
       <c r="X14" t="s">
         <v>297</v>
       </c>
-      <c r="Y14" s="26" t="s">
+      <c r="Y14" s="25" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4304,13 +4295,13 @@
       <c r="A15" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>302</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -4320,11 +4311,11 @@
       <c r="G15" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="3" t="s">
         <v>306</v>
       </c>
@@ -4334,38 +4325,38 @@
       <c r="M15" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="N15" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="12" t="s">
         <v>311</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="R15" s="13"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="T15" s="18" t="s">
+      <c r="T15" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="U15" s="15" t="s">
+      <c r="U15" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="V15" s="19" t="s">
+      <c r="V15" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="W15" s="9" t="s">
         <v>316</v>
       </c>
       <c r="X15" t="s">
         <v>317</v>
       </c>
-      <c r="Y15" s="27" t="s">
+      <c r="Y15" s="26" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4373,13 +4364,13 @@
       <c r="A16" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>322</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -4389,11 +4380,11 @@
       <c r="G16" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="J16" s="13"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="3" t="s">
         <v>326</v>
       </c>
@@ -4403,40 +4394,40 @@
       <c r="M16" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="N16" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="O16" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="R16" s="12" t="s">
         <v>332</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="T16" s="22" t="s">
+      <c r="T16" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="U16" s="15" t="s">
+      <c r="U16" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="V16" s="19" t="s">
+      <c r="V16" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="W16" s="10" t="s">
+      <c r="W16" s="9" t="s">
         <v>336</v>
       </c>
       <c r="X16" t="s">
         <v>337</v>
       </c>
-      <c r="Y16" s="26" t="s">
+      <c r="Y16" s="25" t="s">
         <v>338</v>
       </c>
     </row>
@@ -4444,11 +4435,11 @@
       <c r="A17" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>341</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4458,11 +4449,11 @@
       <c r="G17" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="J17" s="13"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="3" t="s">
         <v>345</v>
       </c>
@@ -4472,38 +4463,38 @@
       <c r="M17" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="N17" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="O17" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="P17" s="12" t="s">
         <v>350</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="R17" s="13"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="T17" s="22" t="s">
+      <c r="T17" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="U17" s="15" t="s">
+      <c r="U17" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="V17" s="19" t="s">
+      <c r="V17" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="W17" s="10" t="s">
+      <c r="W17" s="9" t="s">
         <v>355</v>
       </c>
       <c r="X17" t="s">
         <v>356</v>
       </c>
-      <c r="Y17" s="26" t="s">
+      <c r="Y17" s="25" t="s">
         <v>357</v>
       </c>
     </row>
@@ -4511,11 +4502,11 @@
       <c r="A18" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="3" t="s">
         <v>360</v>
       </c>
@@ -4523,11 +4514,11 @@
       <c r="G18" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="J18" s="13"/>
+      <c r="J18" s="12"/>
       <c r="K18" s="3" t="s">
         <v>363</v>
       </c>
@@ -4537,45 +4528,45 @@
       <c r="M18" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="N18" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="O18" s="15" t="s">
+      <c r="O18" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="P18" s="13" t="s">
+      <c r="P18" s="12" t="s">
         <v>368</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="12" t="s">
         <v>370</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="T18" s="21"/>
-      <c r="U18" s="15" t="s">
+      <c r="T18" s="20"/>
+      <c r="U18" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="V18" s="19" t="s">
+      <c r="V18" s="18" t="s">
         <v>372</v>
       </c>
       <c r="X18" t="s">
         <v>373</v>
       </c>
-      <c r="Y18" s="26"/>
+      <c r="Y18" s="25"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:25">
       <c r="A19" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="3" t="s">
         <v>376</v>
       </c>
@@ -4583,11 +4574,11 @@
       <c r="G19" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="J19" s="13"/>
+      <c r="J19" s="12"/>
       <c r="K19" s="3" t="s">
         <v>379</v>
       </c>
@@ -4597,38 +4588,38 @@
       <c r="M19" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="N19" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="O19" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="P19" s="13" t="s">
+      <c r="P19" s="12" t="s">
         <v>384</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="R19" s="13"/>
+      <c r="R19" s="12"/>
       <c r="S19" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="T19" s="23" t="s">
+      <c r="T19" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="U19" s="15" t="s">
+      <c r="U19" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="V19" s="19" t="s">
+      <c r="V19" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="W19" s="10" t="s">
+      <c r="W19" s="9" t="s">
         <v>389</v>
       </c>
       <c r="X19" t="s">
         <v>390</v>
       </c>
-      <c r="Y19" s="26" t="s">
+      <c r="Y19" s="25" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4636,11 +4627,11 @@
       <c r="A20" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="3" t="s">
         <v>393</v>
       </c>
@@ -4648,11 +4639,11 @@
       <c r="G20" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="J20" s="13"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="3" t="s">
         <v>396</v>
       </c>
@@ -4662,38 +4653,38 @@
       <c r="M20" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="O20" s="15" t="s">
+      <c r="O20" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="P20" s="12" t="s">
         <v>65</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="R20" s="13"/>
+      <c r="R20" s="12"/>
       <c r="S20" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="T20" s="22" t="s">
+      <c r="T20" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="U20" s="15" t="s">
+      <c r="U20" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="V20" s="19" t="s">
+      <c r="V20" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="W20" s="10" t="s">
+      <c r="W20" s="9" t="s">
         <v>405</v>
       </c>
       <c r="X20" t="s">
         <v>406</v>
       </c>
-      <c r="Y20" s="26" t="s">
+      <c r="Y20" s="25" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4701,11 +4692,11 @@
       <c r="A21" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="3" t="s">
         <v>410</v>
       </c>
@@ -4713,11 +4704,11 @@
       <c r="G21" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="J21" s="13"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="3" t="s">
         <v>413</v>
       </c>
@@ -4727,40 +4718,40 @@
       <c r="M21" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N21" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="O21" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="P21" s="13" t="s">
+      <c r="P21" s="12" t="s">
         <v>43</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="R21" s="13" t="s">
+      <c r="R21" s="12" t="s">
         <v>419</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="T21" s="22" t="s">
+      <c r="T21" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="U21" s="15" t="s">
+      <c r="U21" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="V21" s="19" t="s">
+      <c r="V21" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="W21" s="10" t="s">
+      <c r="W21" s="9" t="s">
         <v>423</v>
       </c>
       <c r="X21" t="s">
         <v>424</v>
       </c>
-      <c r="Y21" s="26" t="s">
+      <c r="Y21" s="25" t="s">
         <v>425</v>
       </c>
     </row>
@@ -4768,15 +4759,15 @@
       <c r="A22" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
       <c r="K22" s="3" t="s">
         <v>427</v>
       </c>
@@ -4786,38 +4777,38 @@
       <c r="M22" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N22" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="P22" s="13" t="s">
+      <c r="P22" s="12" t="s">
         <v>21</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="R22" s="13"/>
+      <c r="R22" s="12"/>
       <c r="S22" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="T22" s="22" t="s">
+      <c r="T22" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="U22" s="15" t="s">
+      <c r="U22" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="V22" s="19" t="s">
+      <c r="V22" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="W22" s="10" t="s">
+      <c r="W22" s="9" t="s">
         <v>436</v>
       </c>
       <c r="X22" t="s">
         <v>437</v>
       </c>
-      <c r="Y22" s="26" t="s">
+      <c r="Y22" s="25" t="s">
         <v>438</v>
       </c>
     </row>
@@ -4825,15 +4816,15 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
       <c r="K23" s="3" t="s">
         <v>439</v>
       </c>
@@ -4843,38 +4834,38 @@
       <c r="M23" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="N23" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="O23" s="15" t="s">
+      <c r="O23" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="P23" s="13" t="s">
+      <c r="P23" s="12" t="s">
         <v>444</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="R23" s="13"/>
+      <c r="R23" s="12"/>
       <c r="S23" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="T23" s="22" t="s">
+      <c r="T23" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="U23" s="15" t="s">
+      <c r="U23" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="V23" s="19" t="s">
+      <c r="V23" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="W23" s="10" t="s">
+      <c r="W23" s="9" t="s">
         <v>449</v>
       </c>
       <c r="X23" t="s">
         <v>450</v>
       </c>
-      <c r="Y23" s="26" t="s">
+      <c r="Y23" s="25" t="s">
         <v>451</v>
       </c>
     </row>
@@ -4882,15 +4873,15 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
       <c r="K24" s="3" t="s">
         <v>452</v>
       </c>
@@ -4900,38 +4891,38 @@
       <c r="M24" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="N24" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="O24" s="15" t="s">
+      <c r="O24" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="P24" s="13" t="s">
+      <c r="P24" s="12" t="s">
         <v>457</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="R24" s="13"/>
+      <c r="R24" s="12"/>
       <c r="S24" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="T24" s="22" t="s">
+      <c r="T24" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="U24" s="15" t="s">
+      <c r="U24" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="V24" s="19" t="s">
+      <c r="V24" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="W24" s="10" t="s">
+      <c r="W24" s="9" t="s">
         <v>462</v>
       </c>
       <c r="X24" t="s">
         <v>463</v>
       </c>
-      <c r="Y24" s="26" t="s">
+      <c r="Y24" s="25" t="s">
         <v>464</v>
       </c>
     </row>
@@ -4939,15 +4930,15 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
       <c r="K25" s="3" t="s">
         <v>465</v>
       </c>
@@ -4957,38 +4948,38 @@
       <c r="M25" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="N25" s="13" t="s">
+      <c r="N25" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="O25" s="15" t="s">
+      <c r="O25" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="P25" s="13" t="s">
+      <c r="P25" s="12" t="s">
         <v>470</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="R25" s="13"/>
+      <c r="R25" s="12"/>
       <c r="S25" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="T25" s="22" t="s">
+      <c r="T25" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="U25" s="15" t="s">
+      <c r="U25" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="V25" s="19" t="s">
+      <c r="V25" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="W25" s="10" t="s">
+      <c r="W25" s="9" t="s">
         <v>475</v>
       </c>
       <c r="X25" t="s">
         <v>476</v>
       </c>
-      <c r="Y25" s="26" t="s">
+      <c r="Y25" s="25" t="s">
         <v>477</v>
       </c>
     </row>
@@ -4996,15 +4987,15 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
       <c r="K26" s="3" t="s">
         <v>478</v>
       </c>
@@ -5014,40 +5005,40 @@
       <c r="M26" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="N26" s="13" t="s">
+      <c r="N26" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="O26" s="15" t="s">
+      <c r="O26" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="P26" s="13" t="s">
+      <c r="P26" s="12" t="s">
         <v>21</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="R26" s="13" t="s">
+      <c r="R26" s="12" t="s">
         <v>484</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="T26" s="22" t="s">
+      <c r="T26" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="U26" s="15" t="s">
+      <c r="U26" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="V26" s="19" t="s">
+      <c r="V26" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="W26" s="10" t="s">
+      <c r="W26" s="9" t="s">
         <v>488</v>
       </c>
       <c r="X26" t="s">
         <v>489</v>
       </c>
-      <c r="Y26" s="26" t="s">
+      <c r="Y26" s="25" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5055,15 +5046,15 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
       <c r="K27" s="3" t="s">
         <v>491</v>
       </c>
@@ -5073,38 +5064,38 @@
       <c r="M27" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="N27" s="13" t="s">
+      <c r="N27" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="O27" s="15" t="s">
+      <c r="O27" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="P27" s="13" t="s">
+      <c r="P27" s="12" t="s">
         <v>111</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="R27" s="13"/>
+      <c r="R27" s="12"/>
       <c r="S27" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="T27" s="22" t="s">
+      <c r="T27" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="U27" s="15" t="s">
+      <c r="U27" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="V27" s="19" t="s">
+      <c r="V27" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="W27" s="10" t="s">
+      <c r="W27" s="9" t="s">
         <v>500</v>
       </c>
       <c r="X27" t="s">
         <v>501</v>
       </c>
-      <c r="Y27" s="26" t="s">
+      <c r="Y27" s="25" t="s">
         <v>502</v>
       </c>
     </row>
@@ -5112,15 +5103,15 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
       <c r="K28" s="3" t="s">
         <v>503</v>
       </c>
@@ -5130,37 +5121,37 @@
       <c r="M28" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="N28" s="13" t="s">
+      <c r="N28" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="O28" s="15" t="s">
+      <c r="O28" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="P28" s="13" t="s">
+      <c r="P28" s="12" t="s">
         <v>508</v>
       </c>
       <c r="Q28" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="R28" s="13" t="s">
+      <c r="R28" s="12" t="s">
         <v>510</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="T28" s="21" t="s">
+      <c r="T28" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="U28" s="15" t="s">
+      <c r="U28" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="V28" s="19" t="s">
+      <c r="V28" s="18" t="s">
         <v>513</v>
       </c>
       <c r="X28" t="s">
         <v>514</v>
       </c>
-      <c r="Y28" s="26" t="s">
+      <c r="Y28" s="25" t="s">
         <v>515</v>
       </c>
     </row>
@@ -5168,15 +5159,15 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
       <c r="K29" s="3" t="s">
         <v>516</v>
       </c>
@@ -5186,47 +5177,47 @@
       <c r="M29" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="N29" s="13" t="s">
+      <c r="N29" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="O29" s="15" t="s">
+      <c r="O29" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="P29" s="13" t="s">
+      <c r="P29" s="12" t="s">
         <v>521</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="R29" s="13"/>
+      <c r="R29" s="12"/>
       <c r="S29" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="T29" s="21"/>
-      <c r="U29" s="15" t="s">
+      <c r="T29" s="20"/>
+      <c r="U29" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="V29" s="19" t="s">
+      <c r="V29" s="18" t="s">
         <v>524</v>
       </c>
       <c r="X29" t="s">
         <v>525</v>
       </c>
-      <c r="Y29" s="26"/>
+      <c r="Y29" s="25"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
       <c r="K30" s="3" t="s">
         <v>526</v>
       </c>
@@ -5236,47 +5227,47 @@
       <c r="M30" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="N30" s="13" t="s">
+      <c r="N30" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="O30" s="15" t="s">
+      <c r="O30" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="P30" s="13" t="s">
+      <c r="P30" s="12" t="s">
         <v>531</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="R30" s="13"/>
+      <c r="R30" s="12"/>
       <c r="S30" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="T30" s="21"/>
-      <c r="U30" s="15" t="s">
+      <c r="T30" s="20"/>
+      <c r="U30" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="V30" s="19" t="s">
+      <c r="V30" s="18" t="s">
         <v>534</v>
       </c>
       <c r="X30" t="s">
         <v>535</v>
       </c>
-      <c r="Y30" s="26"/>
+      <c r="Y30" s="25"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
       <c r="K31" s="3" t="s">
         <v>536</v>
       </c>
@@ -5286,44 +5277,44 @@
       <c r="M31" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="N31" s="13" t="s">
+      <c r="N31" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="O31" s="15" t="s">
+      <c r="O31" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="P31" s="13" t="s">
+      <c r="P31" s="12" t="s">
         <v>541</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="R31" s="13"/>
+      <c r="R31" s="12"/>
       <c r="S31" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="T31" s="21"/>
-      <c r="U31" s="15" t="s">
+      <c r="T31" s="20"/>
+      <c r="U31" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="V31" s="19" t="s">
+      <c r="V31" s="18" t="s">
         <v>544</v>
       </c>
       <c r="X31" t="s">
         <v>545</v>
       </c>
-      <c r="Y31" s="26"/>
+      <c r="Y31" s="25"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="12"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
       <c r="K32" s="3" t="s">
         <v>546</v>
       </c>
@@ -5331,176 +5322,170 @@
       <c r="M32" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="15" t="s">
+      <c r="N32" s="12"/>
+      <c r="O32" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="P32" s="13"/>
+      <c r="P32" s="12"/>
       <c r="Q32" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="R32" s="13"/>
+      <c r="R32" s="12"/>
       <c r="S32" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="T32" s="21"/>
-      <c r="U32" s="15" t="s">
+      <c r="T32" s="20"/>
+      <c r="U32" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="V32" s="19" t="s">
+      <c r="V32" s="18" t="s">
         <v>551</v>
       </c>
       <c r="X32" t="s">
         <v>552</v>
       </c>
-      <c r="Y32" s="26"/>
+      <c r="Y32" s="25"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="12"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
       <c r="K33" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="O33" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="N33" t="s">
+      <c r="Q33" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="O33" s="15" t="s">
+      <c r="R33" s="12"/>
+      <c r="S33" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="T33" s="20"/>
+      <c r="U33" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="R33" s="13"/>
-      <c r="S33" s="3" t="s">
+      <c r="V33" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="X33" t="s">
         <v>559</v>
       </c>
-      <c r="T33" s="21"/>
-      <c r="U33" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="V33" s="19" t="s">
-        <v>560</v>
-      </c>
-      <c r="X33" t="s">
-        <v>561</v>
-      </c>
-      <c r="Y33" s="26"/>
+      <c r="Y33" s="25"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="12"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
       <c r="K34" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="N34" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="O34" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="N34" s="13" t="s">
+      <c r="P34" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="O34" s="15" t="s">
+      <c r="Q34" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="P34" s="13" t="s">
+      <c r="R34" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="R34" s="13" t="s">
+      <c r="T34" s="20"/>
+      <c r="U34" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="V34" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="X34" t="s">
         <v>570</v>
       </c>
-      <c r="T34" s="21"/>
-      <c r="U34" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="V34" s="19" t="s">
-        <v>571</v>
-      </c>
-      <c r="X34" t="s">
-        <v>572</v>
-      </c>
-      <c r="Y34" s="26"/>
+      <c r="Y34" s="25"/>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="13"/>
+      <c r="B35" s="12"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
       <c r="K35" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>223</v>
       </c>
       <c r="M35" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q35" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="N35" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="O35" s="15" t="s">
+      <c r="R35" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="P35" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="R35" s="13" t="s">
+      <c r="T35" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="U35" s="23">
+        <v>34</v>
+      </c>
+      <c r="V35" s="18" t="s">
         <v>577</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="W35" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="X35" t="s">
         <v>578</v>
       </c>
-      <c r="T35" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="U35" s="24">
-        <v>34</v>
-      </c>
-      <c r="V35" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="W35" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="X35" t="s">
-        <v>580</v>
-      </c>
-      <c r="Y35" s="27" t="s">
+      <c r="Y35" s="26" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5508,55 +5493,55 @@
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="12"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
       <c r="K36" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>223</v>
       </c>
       <c r="M36" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q36" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="N36" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="O36" s="15" t="s">
+      <c r="R36" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="S36" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="P36" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q36" s="3" t="s">
+      <c r="T36" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="U36" s="23">
+        <v>35</v>
+      </c>
+      <c r="V36" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="R36" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="S36" s="3" t="s">
+      <c r="W36" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="X36" t="s">
         <v>585</v>
       </c>
-      <c r="T36" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="U36" s="24">
-        <v>35</v>
-      </c>
-      <c r="V36" s="19" t="s">
-        <v>586</v>
-      </c>
-      <c r="W36" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="X36" t="s">
-        <v>587</v>
-      </c>
-      <c r="Y36" s="27" t="s">
+      <c r="Y36" s="26" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5564,55 +5549,55 @@
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="12"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
       <c r="K37" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>223</v>
       </c>
       <c r="M37" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q37" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="N37" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="O37" s="15" t="s">
+      <c r="R37" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="S37" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="P37" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q37" s="3" t="s">
+      <c r="T37" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="U37" s="23">
+        <v>36</v>
+      </c>
+      <c r="V37" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="R37" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="S37" s="3" t="s">
+      <c r="W37" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="X37" t="s">
         <v>592</v>
       </c>
-      <c r="T37" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="U37" s="24">
-        <v>36</v>
-      </c>
-      <c r="V37" s="19" t="s">
-        <v>593</v>
-      </c>
-      <c r="W37" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="X37" t="s">
-        <v>594</v>
-      </c>
-      <c r="Y37" s="27" t="s">
+      <c r="Y37" s="26" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5620,143 +5605,143 @@
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="12"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
       <c r="K38" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="M38" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="N38" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="O38" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="N38" s="13" t="s">
+      <c r="P38" s="12"/>
+      <c r="Q38" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="O38" s="15" t="s">
+      <c r="R38" s="12"/>
+      <c r="S38" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="3" t="s">
+      <c r="T38" s="20"/>
+      <c r="U38" s="23">
+        <v>37</v>
+      </c>
+      <c r="V38" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="R38" s="13"/>
-      <c r="S38" s="3" t="s">
+      <c r="X38" t="s">
         <v>601</v>
       </c>
-      <c r="T38" s="21"/>
-      <c r="U38" s="24">
-        <v>37</v>
-      </c>
-      <c r="V38" s="19" t="s">
-        <v>602</v>
-      </c>
-      <c r="X38" t="s">
-        <v>603</v>
-      </c>
-      <c r="Y38" s="26"/>
+      <c r="Y38" s="25"/>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="12"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
       <c r="K39" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="N39" s="12"/>
+      <c r="O39" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="N39" s="13"/>
-      <c r="O39" s="15" t="s">
+      <c r="R39" s="12"/>
+      <c r="S39" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="3" t="s">
+      <c r="T39" s="20"/>
+      <c r="U39" s="23">
+        <v>38</v>
+      </c>
+      <c r="V39" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="R39" s="13"/>
-      <c r="S39" s="3" t="s">
+      <c r="X39" t="s">
         <v>608</v>
       </c>
-      <c r="T39" s="21"/>
-      <c r="U39" s="24">
-        <v>38</v>
-      </c>
-      <c r="V39" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="X39" t="s">
-        <v>610</v>
-      </c>
-      <c r="Y39" s="26"/>
+      <c r="Y39" s="25"/>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="12"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="24">
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="23">
         <v>39</v>
       </c>
-      <c r="V40" s="25"/>
+      <c r="V40" s="24"/>
       <c r="X40" t="s">
-        <v>611</v>
-      </c>
-      <c r="Y40" s="26"/>
+        <v>609</v>
+      </c>
+      <c r="Y40" s="25"/>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="12"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="16"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="15"/>
       <c r="X41" t="s">
-        <v>612</v>
-      </c>
-      <c r="Y41" s="26"/>
+        <v>610</v>
+      </c>
+      <c r="Y41" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5770,7 +5755,7 @@
   <sheetPr/>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G38"/>
     </sheetView>
   </sheetViews>
@@ -5784,23 +5769,23 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>617</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:7">
@@ -5820,10 +5805,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:7">
@@ -5843,10 +5828,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:7">
@@ -5854,20 +5839,20 @@
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:7">
@@ -5887,10 +5872,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:7">
@@ -5910,10 +5895,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:7">
@@ -5933,10 +5918,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:7">
@@ -5954,10 +5939,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:7">
@@ -5977,10 +5962,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:7">
@@ -5998,10 +5983,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:7">
@@ -6021,10 +6006,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:7">
@@ -6042,10 +6027,10 @@
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:7">
@@ -6065,10 +6050,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:7">
@@ -6088,10 +6073,10 @@
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:7">
@@ -6111,10 +6096,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:7">
@@ -6134,10 +6119,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:7">
@@ -6155,10 +6140,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:7">
@@ -6178,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:7">
@@ -6199,10 +6184,10 @@
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:7">
@@ -6222,10 +6207,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:7">
@@ -6245,10 +6230,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:7">
@@ -6268,10 +6253,10 @@
         <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>660</v>
+        <v>657</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:7">
@@ -6291,10 +6276,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:7">
@@ -6314,10 +6299,10 @@
         <v>3</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:7">
@@ -6335,10 +6320,10 @@
         <v>8</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:7">
@@ -6358,10 +6343,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:7">
@@ -6379,33 +6364,33 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:7">
       <c r="A28" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="3">
         <v>21</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="3">
         <v>1</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="3">
         <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:7">
@@ -6425,15 +6410,15 @@
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:7">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8">
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -6446,15 +6431,15 @@
         <v>6</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:7">
       <c r="A31" s="6"/>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>22</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -6467,10 +6452,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:7">
@@ -6490,10 +6475,10 @@
         <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:7">
@@ -6511,15 +6496,15 @@
         <v>6</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B34" s="5">
         <v>24</v>
@@ -6534,10 +6519,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:7">
@@ -6546,7 +6531,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -6555,10 +6540,10 @@
         <v>11</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:7">
@@ -6569,7 +6554,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D36" s="3">
         <v>4</v>
@@ -6578,29 +6563,29 @@
         <v>5</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" spans="1:7">
+      <c r="A37" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B37" s="3">
+        <v>29</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>690</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="37" ht="20" customHeight="1" spans="1:7">
-      <c r="A37" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="B37" s="7">
-        <v>29</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>692</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:7">
@@ -6611,15 +6596,15 @@
         <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:7">
